--- a/medicine/Pharmacie/Chrysanthellum_americanum/Chrysanthellum_americanum.xlsx
+++ b/medicine/Pharmacie/Chrysanthellum_americanum/Chrysanthellum_americanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthellum americanum est une espèce de plante à fleurs de la famille des Asteraceae. Elle est originaire d'Amérique du Sud et d'Afrique.
-Les noms français de ces plantes aux fleurs jaunes sont herbe aux fleurs d’or, camomille d’or[1].
+Les noms français de ces plantes aux fleurs jaunes sont herbe aux fleurs d’or, camomille d’or.
 </t>
         </is>
       </c>
@@ -514,11 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Culture
-Chrysanthellum americanum est aujourd'hui essentiellement récolté sur les hauts plateaux d'Afrique. 
-Composant
-Riche en flavonoïdes
-La vitamine P qu'elle contient favorise la circulation des capillaires sanguins et augmente leur résistance</t>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysanthellum americanum est aujourd'hui essentiellement récolté sur les hauts plateaux d'Afrique. 
+</t>
         </is>
       </c>
     </row>
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Composant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Riche en flavonoïdes
+La vitamine P qu'elle contient favorise la circulation des capillaires sanguins et augmente leur résistance</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chrysanthellum_americanum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysanthellum_americanum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Pharmacopée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Partie utilisée: la plante entière.
 Propriétés: protecteur hépatique, insuffisance de la sécrétion billiaire, cirrhose.[réf. nécessaire]
